--- a/Final.xlsx
+++ b/Final.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Projects\Route_Planner\Sample-Code_Rout-Planning\Sample-Code_Rout-Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Projects\Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,35 +58,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="B Zar"/>
       <charset val="178"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="B Zar"/>
       <charset val="178"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="B Zar"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,32 +99,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -160,7 +139,53 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
+        <name val="B Zar"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="B Zar"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
         <name val="B Zar"/>
         <scheme val="none"/>
       </font>
@@ -178,7 +203,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="B Zar"/>
         <scheme val="none"/>
       </font>
@@ -196,7 +221,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="B Zar"/>
         <scheme val="none"/>
       </font>
@@ -214,7 +239,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="B Zar"/>
         <scheme val="none"/>
       </font>
@@ -232,32 +257,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="B Zar"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="B Zar"/>
         <scheme val="none"/>
       </font>
@@ -271,31 +271,10 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="B Zar"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+      <border outline="0">
+        <top style="thin">
           <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
+        </top>
       </border>
     </dxf>
   </dxfs>
@@ -312,17 +291,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
-  <autoFilter ref="A1:E23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="A1:E24"/>
   <sortState ref="A2:H26">
     <sortCondition ref="D1:D26"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="3" name="کد ترمینال" dataDxfId="4"/>
-    <tableColumn id="6" name="Latitude" dataDxfId="3"/>
-    <tableColumn id="7" name="Longitude" dataDxfId="2"/>
-    <tableColumn id="4" name="نسبت مانده" dataDxfId="1"/>
-    <tableColumn id="11" name="Time" dataDxfId="0"/>
+    <tableColumn id="3" name="کد ترمینال" dataDxfId="6"/>
+    <tableColumn id="6" name="Latitude" dataDxfId="5"/>
+    <tableColumn id="7" name="Longitude" dataDxfId="4"/>
+    <tableColumn id="4" name="نسبت مانده" dataDxfId="3"/>
+    <tableColumn id="11" name="Time" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -615,367 +594,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="10.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="8"/>
-      <c r="B2" s="6">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>35.762213000000003</v>
+      </c>
+      <c r="C2" s="5">
+        <v>51.415824000000001</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>331234</v>
+      </c>
+      <c r="B3" s="3">
         <v>35.682293000000001</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C3" s="3">
         <v>51.017238999999996</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="19.5">
-      <c r="A3" s="1">
+      <c r="D3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>336679</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="5">
         <v>35.689602999999998</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="5">
         <v>50.992558000000002</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="6">
         <v>1.0247633269816201</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="19.5">
-      <c r="A4" s="1">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>388985</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="5">
         <v>35.677266000000003</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="5">
         <v>51.012835000000003</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D5" s="6">
         <v>1.090128724974049</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="19.5">
-      <c r="A5" s="1">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>292121</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="5">
         <v>35.689436000000001</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="5">
         <v>50.985959999999999</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D6" s="6">
         <v>1.119163638334717</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="19.5">
-      <c r="A6" s="1">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>388635</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="5">
         <v>35.682395</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="5">
         <v>51.013522999999999</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D7" s="6">
         <v>1.206914777268665</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="19.5">
-      <c r="A7" s="1">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>224912</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="5">
         <v>35.678235000000001</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="5">
         <v>51.022181000000003</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D8" s="6">
         <v>1.216347512179822</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="19.5">
-      <c r="A8" s="1">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>386350</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="5">
         <v>35.686106000000002</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="5">
         <v>50.964655999999998</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D9" s="6">
         <v>1.24013904667688</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="19.5">
-      <c r="A9" s="1">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>387730</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="5">
         <v>35.695872999999999</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="5">
         <v>50.995697999999997</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D10" s="6">
         <v>1.332878228123028</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="19.5">
-      <c r="A10" s="1">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>365626</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="5">
         <v>35.682298000000003</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="5">
         <v>50.964995000000002</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="6">
         <v>1.3798360367958831</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="19.5">
-      <c r="A11" s="1">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>386094</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="5">
         <v>35.68506</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="5">
         <v>50.990273000000002</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D12" s="6">
         <v>1.433961527241129</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="19.5">
-      <c r="A12" s="1">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>386391</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="5">
         <v>35.690800000000003</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="5">
         <v>50.975299999999997</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D13" s="6">
         <v>1.5810143765873941</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5">
-      <c r="A13" s="1">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>387858</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="5">
         <v>35.660454000000001</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="5">
         <v>50.976768</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D14" s="6">
         <v>1.604278975279116</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="19.5">
-      <c r="A14" s="1">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>388115</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="5">
         <v>35.673712000000002</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="5">
         <v>51.021396000000003</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D15" s="6">
         <v>1.799428662900795</v>
       </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="19.5">
-      <c r="A15" s="1">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>224791</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="5">
         <v>35.661670999999998</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="5">
         <v>50.976896000000004</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D16" s="6">
         <v>1.80251149899189</v>
       </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="19.5">
-      <c r="A16" s="1">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>386352</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="5">
         <v>35.691265999999999</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="5">
         <v>50.972195999999997</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D17" s="6">
         <v>1.9153225733420109</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="19.5">
-      <c r="A17" s="1">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
         <v>387837</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="5">
         <v>35.693973</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="5">
         <v>50.993327999999998</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D18" s="6">
         <v>1.9959853873026521</v>
       </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="19.5">
-      <c r="A18" s="1">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
         <v>388721</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="5">
         <v>35.687199999999997</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="5">
         <v>50.998725999999998</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D19" s="6">
         <v>2.0317340564627049</v>
       </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="19.5">
-      <c r="A19" s="1">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>387794</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="5">
         <v>35.688668999999997</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="5">
         <v>50.992055999999998</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D20" s="6">
         <v>2.0721944038006841</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="19.5">
-      <c r="A20" s="1">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
         <v>389162</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="5">
         <v>35.678314999999998</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="5">
         <v>51.022419999999997</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D21" s="6">
         <v>2.1128851207648962</v>
       </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="19.5">
-      <c r="A21" s="1">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>386834</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="5">
         <v>35.671151999999999</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="5">
         <v>51.019216</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D22" s="6">
         <v>2.157760150036709</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="19.5">
-      <c r="A22" s="1">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <v>388081</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="5">
         <v>35.678336000000002</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="5">
         <v>51.012968000000001</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D23" s="6">
         <v>2.1617171935508952</v>
       </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="19.5">
-      <c r="A23" s="1">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
         <v>388714</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B24" s="5">
         <v>35.680596000000001</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="5">
         <v>51.015509000000002</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D24" s="6">
         <v>2.2821585266453792</v>
       </c>
-      <c r="E23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Final.xlsx
+++ b/Final.xlsx
@@ -5,42 +5,148 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Projects\Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Safarzadeh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>ردیف</t>
+  </si>
+  <si>
+    <t>نام ترمینال</t>
+  </si>
   <si>
     <t>کد ترمینال</t>
   </si>
   <si>
+    <t>کد شعبه</t>
+  </si>
+  <si>
     <t>Latitude</t>
   </si>
   <si>
     <t>Longitude</t>
   </si>
   <si>
-    <t>نسبت مانده</t>
-  </si>
-  <si>
-    <t>Time</t>
+    <t>املاک ایران</t>
+  </si>
+  <si>
+    <t>املاک آسمان 2</t>
+  </si>
+  <si>
+    <t>مجتمع تجاری رفاه اندیشه</t>
+  </si>
+  <si>
+    <t>فروشگاه کریمی</t>
+  </si>
+  <si>
+    <t>پوشاک گلپوش</t>
+  </si>
+  <si>
+    <t>بیمه پاسارگاد3636</t>
+  </si>
+  <si>
+    <t>تعاونی امیرکبیر</t>
+  </si>
+  <si>
+    <t>مشاور املاک نور</t>
+  </si>
+  <si>
+    <t>املاک نصیری</t>
+  </si>
+  <si>
+    <t>املاک راغب 2</t>
+  </si>
+  <si>
+    <t>مشاور املاک نور 2</t>
+  </si>
+  <si>
+    <t>فروشگاه علیرضا</t>
+  </si>
+  <si>
+    <t>فروشگاه شاهوردی</t>
+  </si>
+  <si>
+    <t>به سوپر مارکت آذربایجان</t>
+  </si>
+  <si>
+    <t>فروشگاه سرکان</t>
+  </si>
+  <si>
+    <t>فروشگاه سامان</t>
+  </si>
+  <si>
+    <t>بیمه پاسارگاد 4675</t>
+  </si>
+  <si>
+    <t>فروشگاه وحدت</t>
+  </si>
+  <si>
+    <t>شیرنوش</t>
+  </si>
+  <si>
+    <t>خدمات زارع</t>
+  </si>
+  <si>
+    <t>فروشگاه درسا</t>
+  </si>
+  <si>
+    <t>مجتمع مسکونی گلسار</t>
+  </si>
+  <si>
+    <t>فروشگاه پناهیان</t>
+  </si>
+  <si>
+    <t>ساختمان پزشکی رضا</t>
+  </si>
+  <si>
+    <t>املاک کیائی</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="B Zar"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="B Zar"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,15 +157,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="B Zar"/>
-      <charset val="178"/>
     </font>
     <font>
       <sz val="11"/>
@@ -99,26 +197,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -126,7 +227,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <font>
         <b val="0"/>
@@ -139,53 +240,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
-        <name val="B Zar"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="B Zar"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="B Zar"/>
         <scheme val="none"/>
       </font>
@@ -203,7 +258,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="B Zar"/>
         <scheme val="none"/>
       </font>
@@ -221,7 +276,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="B Zar"/>
         <scheme val="none"/>
       </font>
@@ -239,7 +294,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="B Zar"/>
         <scheme val="none"/>
       </font>
@@ -257,7 +312,25 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
+        <color theme="1"/>
+        <name val="B Zar"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="B Zar"/>
         <scheme val="none"/>
       </font>
@@ -277,6 +350,52 @@
         </top>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="B Zar"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="B Zar"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -291,17 +410,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8">
-  <autoFilter ref="A1:E24"/>
-  <sortState ref="A2:H26">
-    <sortCondition ref="D1:D26"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="3" name="کد ترمینال" dataDxfId="6"/>
-    <tableColumn id="6" name="Latitude" dataDxfId="5"/>
-    <tableColumn id="7" name="Longitude" dataDxfId="4"/>
-    <tableColumn id="4" name="نسبت مانده" dataDxfId="3"/>
-    <tableColumn id="11" name="Time" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F27" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="A1:F27"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ردیف" dataDxfId="5"/>
+    <tableColumn id="2" name="نام ترمینال" dataDxfId="4"/>
+    <tableColumn id="3" name="کد ترمینال" dataDxfId="3"/>
+    <tableColumn id="5" name="کد شعبه" dataDxfId="2"/>
+    <tableColumn id="6" name="Latitude" dataDxfId="1"/>
+    <tableColumn id="7" name="Longitude" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -594,368 +711,569 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="5"/>
-    <col min="5" max="5" width="10.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="5"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="19.5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
         <v>35.762213000000003</v>
       </c>
-      <c r="C2" s="5">
+      <c r="F2" s="6">
         <v>51.415824000000001</v>
       </c>
-      <c r="D2" s="4">
+      <c r="G2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>331234</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>386835</v>
+      </c>
+      <c r="D3" s="1">
+        <v>950</v>
+      </c>
+      <c r="E3" s="1">
+        <v>35.690094999999999</v>
+      </c>
+      <c r="F3" s="1">
+        <v>50.979559000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>387765</v>
+      </c>
+      <c r="D4" s="1">
+        <v>950</v>
+      </c>
+      <c r="E4" s="1">
+        <v>35.690066000000002</v>
+      </c>
+      <c r="F4" s="1">
+        <v>50.968919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>224912</v>
+      </c>
+      <c r="D5" s="1">
+        <v>950</v>
+      </c>
+      <c r="E5" s="1">
+        <v>35.678235000000001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>51.022181000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>388985</v>
+      </c>
+      <c r="D6" s="1">
+        <v>950</v>
+      </c>
+      <c r="E6" s="1">
+        <v>35.677266000000003</v>
+      </c>
+      <c r="F6" s="1">
+        <v>51.012835000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>388635</v>
+      </c>
+      <c r="D7" s="1">
+        <v>950</v>
+      </c>
+      <c r="E7" s="1">
+        <v>35.682395</v>
+      </c>
+      <c r="F7" s="1">
+        <v>51.013522999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>389162</v>
+      </c>
+      <c r="D8" s="1">
+        <v>950</v>
+      </c>
+      <c r="E8" s="1">
+        <v>35.678314999999998</v>
+      </c>
+      <c r="F8" s="1">
+        <v>51.022419999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>224791</v>
+      </c>
+      <c r="D9" s="1">
+        <v>950</v>
+      </c>
+      <c r="E9" s="1">
+        <v>35.661670999999998</v>
+      </c>
+      <c r="F9" s="1">
+        <v>50.976896000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>336679</v>
+      </c>
+      <c r="D10" s="1">
+        <v>950</v>
+      </c>
+      <c r="E10" s="1">
+        <v>35.689602999999998</v>
+      </c>
+      <c r="F10" s="1">
+        <v>50.992558000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>388516</v>
+      </c>
+      <c r="D11" s="1">
+        <v>950</v>
+      </c>
+      <c r="E11" s="1">
         <v>35.682293000000001</v>
       </c>
-      <c r="C3" s="3">
+      <c r="F11" s="1">
         <v>51.017238999999996</v>
       </c>
-      <c r="D3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>336679</v>
-      </c>
-      <c r="B4" s="5">
-        <v>35.689602999999998</v>
-      </c>
-      <c r="C4" s="5">
-        <v>50.992558000000002</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1.0247633269816201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>388985</v>
-      </c>
-      <c r="B5" s="5">
-        <v>35.677266000000003</v>
-      </c>
-      <c r="C5" s="5">
-        <v>51.012835000000003</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1.090128724974049</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+    </row>
+    <row r="12" spans="1:8" ht="19.5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>387730</v>
+      </c>
+      <c r="D12" s="1">
+        <v>950</v>
+      </c>
+      <c r="E12" s="1">
+        <v>35.695872999999999</v>
+      </c>
+      <c r="F12" s="1">
+        <v>50.995697999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <v>386094</v>
+      </c>
+      <c r="D13" s="1">
+        <v>950</v>
+      </c>
+      <c r="E13" s="1">
+        <v>35.68506</v>
+      </c>
+      <c r="F13" s="1">
+        <v>50.990273000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19.5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1">
+        <v>388115</v>
+      </c>
+      <c r="D14" s="1">
+        <v>950</v>
+      </c>
+      <c r="E14" s="1">
+        <v>35.673712000000002</v>
+      </c>
+      <c r="F14" s="1">
+        <v>51.021396000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19.5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1">
+        <v>387837</v>
+      </c>
+      <c r="D15" s="1">
+        <v>950</v>
+      </c>
+      <c r="E15" s="1">
+        <v>35.693973</v>
+      </c>
+      <c r="F15" s="1">
+        <v>50.993327999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19.5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1">
+        <v>388721</v>
+      </c>
+      <c r="D16" s="1">
+        <v>950</v>
+      </c>
+      <c r="E16" s="1">
+        <v>35.687199999999997</v>
+      </c>
+      <c r="F16" s="1">
+        <v>50.998725999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19.5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1">
+        <v>387794</v>
+      </c>
+      <c r="D17" s="1">
+        <v>950</v>
+      </c>
+      <c r="E17" s="1">
+        <v>35.688668999999997</v>
+      </c>
+      <c r="F17" s="1">
+        <v>50.992055999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19.5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1">
+        <v>386834</v>
+      </c>
+      <c r="D18" s="1">
+        <v>950</v>
+      </c>
+      <c r="E18" s="1">
+        <v>35.671151999999999</v>
+      </c>
+      <c r="F18" s="1">
+        <v>51.019216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19.5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1">
+        <v>388081</v>
+      </c>
+      <c r="D19" s="1">
+        <v>950</v>
+      </c>
+      <c r="E19" s="1">
+        <v>35.678336000000002</v>
+      </c>
+      <c r="F19" s="1">
+        <v>51.012968000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="19.5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1">
+        <v>388714</v>
+      </c>
+      <c r="D20" s="1">
+        <v>950</v>
+      </c>
+      <c r="E20" s="1">
+        <v>35.680596000000001</v>
+      </c>
+      <c r="F20" s="1">
+        <v>51.015509000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="19.5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1">
+        <v>369619</v>
+      </c>
+      <c r="D21" s="1">
+        <v>950</v>
+      </c>
+      <c r="E21" s="1">
+        <v>35.689494000000003</v>
+      </c>
+      <c r="F21" s="1">
+        <v>50.983348999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="19.5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1">
         <v>292121</v>
       </c>
-      <c r="B6" s="5">
+      <c r="D22" s="1">
+        <v>950</v>
+      </c>
+      <c r="E22" s="1">
         <v>35.689436000000001</v>
       </c>
-      <c r="C6" s="5">
+      <c r="F22" s="1">
         <v>50.985959999999999</v>
       </c>
-      <c r="D6" s="6">
-        <v>1.119163638334717</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>388635</v>
-      </c>
-      <c r="B7" s="5">
-        <v>35.682395</v>
-      </c>
-      <c r="C7" s="5">
-        <v>51.013522999999999</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1.206914777268665</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>224912</v>
-      </c>
-      <c r="B8" s="5">
-        <v>35.678235000000001</v>
-      </c>
-      <c r="C8" s="5">
-        <v>51.022181000000003</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1.216347512179822</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    </row>
+    <row r="23" spans="1:6" ht="19.5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1">
         <v>386350</v>
       </c>
-      <c r="B9" s="5">
+      <c r="D23" s="1">
+        <v>950</v>
+      </c>
+      <c r="E23" s="1">
         <v>35.686106000000002</v>
       </c>
-      <c r="C9" s="5">
+      <c r="F23" s="1">
         <v>50.964655999999998</v>
       </c>
-      <c r="D9" s="6">
-        <v>1.24013904667688</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>387730</v>
-      </c>
-      <c r="B10" s="5">
-        <v>35.695872999999999</v>
-      </c>
-      <c r="C10" s="5">
-        <v>50.995697999999997</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1.332878228123028</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+    </row>
+    <row r="24" spans="1:6" ht="19.5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1">
         <v>365626</v>
       </c>
-      <c r="B11" s="5">
+      <c r="D24" s="1">
+        <v>950</v>
+      </c>
+      <c r="E24" s="1">
         <v>35.682298000000003</v>
       </c>
-      <c r="C11" s="5">
+      <c r="F24" s="1">
         <v>50.964995000000002</v>
       </c>
-      <c r="D11" s="6">
-        <v>1.3798360367958831</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>386094</v>
-      </c>
-      <c r="B12" s="5">
-        <v>35.68506</v>
-      </c>
-      <c r="C12" s="5">
-        <v>50.990273000000002</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1.433961527241129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+    </row>
+    <row r="25" spans="1:6" ht="19.5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1">
         <v>386391</v>
       </c>
-      <c r="B13" s="5">
+      <c r="D25" s="1">
+        <v>950</v>
+      </c>
+      <c r="E25" s="1">
         <v>35.690800000000003</v>
       </c>
-      <c r="C13" s="5">
+      <c r="F25" s="1">
         <v>50.975299999999997</v>
       </c>
-      <c r="D13" s="6">
-        <v>1.5810143765873941</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+    </row>
+    <row r="26" spans="1:6" ht="19.5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1">
         <v>387858</v>
       </c>
-      <c r="B14" s="5">
+      <c r="D26" s="1">
+        <v>950</v>
+      </c>
+      <c r="E26" s="1">
         <v>35.660454000000001</v>
       </c>
-      <c r="C14" s="5">
+      <c r="F26" s="1">
         <v>50.976768</v>
       </c>
-      <c r="D14" s="6">
-        <v>1.604278975279116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>388115</v>
-      </c>
-      <c r="B15" s="5">
-        <v>35.673712000000002</v>
-      </c>
-      <c r="C15" s="5">
-        <v>51.021396000000003</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1.799428662900795</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>224791</v>
-      </c>
-      <c r="B16" s="5">
-        <v>35.661670999999998</v>
-      </c>
-      <c r="C16" s="5">
-        <v>50.976896000000004</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1.80251149899189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+    </row>
+    <row r="27" spans="1:6" ht="19.5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1">
         <v>386352</v>
       </c>
-      <c r="B17" s="5">
+      <c r="D27" s="1">
+        <v>950</v>
+      </c>
+      <c r="E27" s="1">
         <v>35.691265999999999</v>
       </c>
-      <c r="C17" s="5">
+      <c r="F27" s="1">
         <v>50.972195999999997</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1.9153225733420109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>387837</v>
-      </c>
-      <c r="B18" s="5">
-        <v>35.693973</v>
-      </c>
-      <c r="C18" s="5">
-        <v>50.993327999999998</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1.9959853873026521</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>388721</v>
-      </c>
-      <c r="B19" s="5">
-        <v>35.687199999999997</v>
-      </c>
-      <c r="C19" s="5">
-        <v>50.998725999999998</v>
-      </c>
-      <c r="D19" s="6">
-        <v>2.0317340564627049</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>387794</v>
-      </c>
-      <c r="B20" s="5">
-        <v>35.688668999999997</v>
-      </c>
-      <c r="C20" s="5">
-        <v>50.992055999999998</v>
-      </c>
-      <c r="D20" s="6">
-        <v>2.0721944038006841</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>389162</v>
-      </c>
-      <c r="B21" s="5">
-        <v>35.678314999999998</v>
-      </c>
-      <c r="C21" s="5">
-        <v>51.022419999999997</v>
-      </c>
-      <c r="D21" s="6">
-        <v>2.1128851207648962</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>386834</v>
-      </c>
-      <c r="B22" s="5">
-        <v>35.671151999999999</v>
-      </c>
-      <c r="C22" s="5">
-        <v>51.019216</v>
-      </c>
-      <c r="D22" s="6">
-        <v>2.157760150036709</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>388081</v>
-      </c>
-      <c r="B23" s="5">
-        <v>35.678336000000002</v>
-      </c>
-      <c r="C23" s="5">
-        <v>51.012968000000001</v>
-      </c>
-      <c r="D23" s="6">
-        <v>2.1617171935508952</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>388714</v>
-      </c>
-      <c r="B24" s="5">
-        <v>35.680596000000001</v>
-      </c>
-      <c r="C24" s="5">
-        <v>51.015509000000002</v>
-      </c>
-      <c r="D24" s="6">
-        <v>2.2821585266453792</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Final.xlsx
+++ b/Final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Safarzadeh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Projects\Route_Planner\Sample-Code_Rout-Planning\Sample-Code_Rout-Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>ردیف</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>املاک کیائی</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -338,13 +341,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -367,6 +363,13 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -410,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F27" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F27" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
   <autoFilter ref="A1:F27"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ردیف" dataDxfId="5"/>
@@ -714,7 +717,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -745,6 +748,9 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="19.5">
       <c r="A2" s="4">
